--- a/OutputFiles/TC02_Canine_Filter_Diagnosis-LipLingual_WebData.xlsx
+++ b/OutputFiles/TC02_Canine_Filter_Diagnosis-LipLingual_WebData.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="195">
   <si>
     <t>Case ID</t>
   </si>
@@ -41,31 +41,562 @@
     <t>Neutered Status</t>
   </si>
   <si>
-    <t>NCATS-COP01CCB030162</t>
-  </si>
-  <si>
-    <t>NCATS-COP01</t>
-  </si>
-  <si>
-    <t>Transcriptomics</t>
+    <t>COTC007B0101</t>
+  </si>
+  <si>
+    <t>COTC007B</t>
+  </si>
+  <si>
+    <t>Clinical Trial</t>
+  </si>
+  <si>
+    <t>Boxer</t>
+  </si>
+  <si>
+    <t>Stage 3</t>
+  </si>
+  <si>
+    <t>IIIA</t>
+  </si>
+  <si>
+    <t>10.1</t>
+  </si>
+  <si>
+    <t>Spayed female</t>
+  </si>
+  <si>
+    <t>COTC007B0201</t>
+  </si>
+  <si>
+    <t>Samoyed</t>
+  </si>
+  <si>
+    <t>Lymphoma</t>
+  </si>
+  <si>
+    <t>III</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>COTC007B0202</t>
+  </si>
+  <si>
+    <t>Golden Retriever</t>
+  </si>
+  <si>
+    <t>10.3</t>
+  </si>
+  <si>
+    <t>Castrated male</t>
+  </si>
+  <si>
+    <t>COTC007B0203</t>
+  </si>
+  <si>
+    <t>Black and Tan Coonhound</t>
+  </si>
+  <si>
+    <t>COTC007B0204</t>
+  </si>
+  <si>
+    <t>Australian Shepherd</t>
+  </si>
+  <si>
+    <t>10.6</t>
+  </si>
+  <si>
+    <t>COTC007B0205</t>
   </si>
   <si>
     <t>Mixed Breed</t>
   </si>
   <si>
-    <t>Lip and oropharyngeal neoplasms malignant :: Melanoma-lingual</t>
+    <t>9.7</t>
+  </si>
+  <si>
+    <t>COTC007B0206</t>
+  </si>
+  <si>
+    <t>5.9</t>
+  </si>
+  <si>
+    <t>COTC007B0207</t>
+  </si>
+  <si>
+    <t>10.2</t>
+  </si>
+  <si>
+    <t>COTC007B0208</t>
+  </si>
+  <si>
+    <t>German Shepherd Dog</t>
+  </si>
+  <si>
+    <t>7.3</t>
+  </si>
+  <si>
+    <t>COTC007B0209</t>
+  </si>
+  <si>
+    <t>Doberman Pinscher</t>
+  </si>
+  <si>
+    <t>4.9</t>
+  </si>
+  <si>
+    <t>COTC007B0210</t>
+  </si>
+  <si>
+    <t>Bullmastiff</t>
+  </si>
+  <si>
+    <t>8.9</t>
+  </si>
+  <si>
+    <t>Male Phenotype</t>
+  </si>
+  <si>
+    <t>COTC007B0211</t>
+  </si>
+  <si>
+    <t>Beagle</t>
+  </si>
+  <si>
+    <t>9.9</t>
+  </si>
+  <si>
+    <t>COTC007B0212</t>
+  </si>
+  <si>
+    <t>Stage 2</t>
+  </si>
+  <si>
+    <t>II</t>
+  </si>
+  <si>
+    <t>COTC007B0213</t>
+  </si>
+  <si>
+    <t>Belgian Malinois</t>
+  </si>
+  <si>
+    <t>8.1</t>
+  </si>
+  <si>
+    <t>COTC007B0214</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
+    <t>COTC007B0215</t>
+  </si>
+  <si>
+    <t>Labrador Retriever</t>
+  </si>
+  <si>
+    <t>COTC007B0216</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>COTC007B0217</t>
+  </si>
+  <si>
+    <t>COTC007B0218</t>
+  </si>
+  <si>
+    <t>6.7</t>
+  </si>
+  <si>
+    <t>COTC007B0219</t>
+  </si>
+  <si>
+    <t>COTC007B0220</t>
+  </si>
+  <si>
+    <t>Multicentric lymphoma</t>
+  </si>
+  <si>
+    <t>12.2</t>
+  </si>
+  <si>
+    <t>COTC007B0301</t>
+  </si>
+  <si>
+    <t>American Staffordshire Terrier</t>
+  </si>
+  <si>
+    <t>Lymphomatoid granulomatosis</t>
+  </si>
+  <si>
+    <t>5.8</t>
+  </si>
+  <si>
+    <t>COTC007B0302</t>
+  </si>
+  <si>
+    <t>Mastiff</t>
+  </si>
+  <si>
+    <t>4.7</t>
+  </si>
+  <si>
+    <t>COTC007B0303</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>Female Phenotype</t>
+  </si>
+  <si>
+    <t>COTC007B0304</t>
+  </si>
+  <si>
+    <t>4.8</t>
+  </si>
+  <si>
+    <t>COTC007B0305</t>
+  </si>
+  <si>
+    <t>6.5</t>
+  </si>
+  <si>
+    <t>COTC007B0401</t>
+  </si>
+  <si>
+    <t>Malignant lymphoma</t>
+  </si>
+  <si>
+    <t>COTC007B0402</t>
+  </si>
+  <si>
+    <t>VA</t>
+  </si>
+  <si>
+    <t>4.6</t>
+  </si>
+  <si>
+    <t>COTC007B0403</t>
+  </si>
+  <si>
+    <t>Bernese Mountain Dog</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>COTC007B0404</t>
+  </si>
+  <si>
+    <t>IVB</t>
+  </si>
+  <si>
+    <t>COTC007B0405</t>
+  </si>
+  <si>
+    <t>IIIB</t>
+  </si>
+  <si>
+    <t>6.1</t>
+  </si>
+  <si>
+    <t>COTC007B0406</t>
+  </si>
+  <si>
+    <t>7.2</t>
+  </si>
+  <si>
+    <t>COTC007B0407</t>
+  </si>
+  <si>
+    <t>3.7</t>
+  </si>
+  <si>
+    <t>COTC007B0408</t>
+  </si>
+  <si>
+    <t>Chesapeake Bay Retriever</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>COTC007B0409</t>
+  </si>
+  <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>COTC007B0410</t>
+  </si>
+  <si>
+    <t>12.6</t>
+  </si>
+  <si>
+    <t>COTC007B0411</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>COTC007B0412</t>
+  </si>
+  <si>
+    <t>COTC007B0413</t>
+  </si>
+  <si>
+    <t>10.5</t>
+  </si>
+  <si>
+    <t>COTC007B0414</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>COTC007B0415</t>
+  </si>
+  <si>
+    <t>5.2</t>
+  </si>
+  <si>
+    <t>COTC007B0501</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>COTC007B0502</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>COTC007B0503</t>
+  </si>
+  <si>
+    <t>11.5</t>
+  </si>
+  <si>
+    <t>COTC007B0504</t>
+  </si>
+  <si>
+    <t>3.3</t>
+  </si>
+  <si>
+    <t>COTC007B0505</t>
+  </si>
+  <si>
+    <t>Rottweiler</t>
+  </si>
+  <si>
+    <t>COTC007B0506</t>
+  </si>
+  <si>
+    <t>-76.8</t>
+  </si>
+  <si>
+    <t>COTC007B0507</t>
+  </si>
+  <si>
+    <t>Stage 4</t>
+  </si>
+  <si>
+    <t>6.2</t>
+  </si>
+  <si>
+    <t>COTC007B0508</t>
+  </si>
+  <si>
+    <t>COTC007B0509</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>COTC007B0510</t>
+  </si>
+  <si>
+    <t>9.5</t>
+  </si>
+  <si>
+    <t>COTC007B0511</t>
+  </si>
+  <si>
+    <t>Stage 5</t>
+  </si>
+  <si>
+    <t>VB</t>
+  </si>
+  <si>
     <t>12</t>
   </si>
   <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>Yes</t>
+    <t>COTC007B0512</t>
+  </si>
+  <si>
+    <t>Saint Bernard</t>
+  </si>
+  <si>
+    <t>7.1</t>
+  </si>
+  <si>
+    <t>COTC007B0513</t>
+  </si>
+  <si>
+    <t>COTC007B0601</t>
+  </si>
+  <si>
+    <t>English Setter</t>
+  </si>
+  <si>
+    <t>7.8</t>
+  </si>
+  <si>
+    <t>COTC007B0602</t>
+  </si>
+  <si>
+    <t>COTC007B0603</t>
+  </si>
+  <si>
+    <t>COTC007B0604</t>
+  </si>
+  <si>
+    <t>6.4</t>
+  </si>
+  <si>
+    <t>COTC007B0605</t>
+  </si>
+  <si>
+    <t>IVA</t>
+  </si>
+  <si>
+    <t>COTC007B0607</t>
+  </si>
+  <si>
+    <t>Border Collie</t>
+  </si>
+  <si>
+    <t>8.4</t>
+  </si>
+  <si>
+    <t>COTC007B0608</t>
+  </si>
+  <si>
+    <t>COTC007B0609</t>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>COTC007B0610</t>
+  </si>
+  <si>
+    <t>Cavalier King Charles Spaniel</t>
+  </si>
+  <si>
+    <t>5.4</t>
+  </si>
+  <si>
+    <t>COTC007B0611</t>
+  </si>
+  <si>
+    <t>Flat-Coated Retriever</t>
+  </si>
+  <si>
+    <t>COTC007B0612</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>COTC007B0613</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>COTC007B0614</t>
+  </si>
+  <si>
+    <t>COTC007B0615</t>
+  </si>
+  <si>
+    <t>Irish Wolfhound</t>
+  </si>
+  <si>
+    <t>COTC007B0616</t>
+  </si>
+  <si>
+    <t>Basset Hound</t>
+  </si>
+  <si>
+    <t>COTC007B0617</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>COTC007B0901</t>
+  </si>
+  <si>
+    <t>Gordon Setter</t>
+  </si>
+  <si>
+    <t>COTC007B0902</t>
+  </si>
+  <si>
+    <t>COTC007B1001</t>
+  </si>
+  <si>
+    <t>IV</t>
+  </si>
+  <si>
+    <t>COTC007B1002</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>COTC007B1003</t>
+  </si>
+  <si>
+    <t>COTC007B1601</t>
+  </si>
+  <si>
+    <t>COTC007B1602</t>
+  </si>
+  <si>
+    <t>COTC007B1603</t>
+  </si>
+  <si>
+    <t>COTC007B1604</t>
+  </si>
+  <si>
+    <t>COTC007B1605</t>
+  </si>
+  <si>
+    <t>COTC007B1606</t>
+  </si>
+  <si>
+    <t>COTC007B1607</t>
+  </si>
+  <si>
+    <t>COTC007B1608</t>
+  </si>
+  <si>
+    <t>Irish Setter</t>
+  </si>
+  <si>
+    <t>COTC007B1609</t>
+  </si>
+  <si>
+    <t>Vizsla</t>
   </si>
 </sst>
 </file>
@@ -110,7 +641,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J85"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -170,8 +701,2163 @@
       <c r="H2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" t="s">
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
         <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" t="s">
+        <v>56</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" t="s">
+        <v>58</v>
+      </c>
+      <c r="H17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" t="s">
+        <v>58</v>
+      </c>
+      <c r="H18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" t="s">
+        <v>58</v>
+      </c>
+      <c r="H19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" t="s">
+        <v>65</v>
+      </c>
+      <c r="H20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" t="s">
+        <v>58</v>
+      </c>
+      <c r="H21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" t="s">
+        <v>69</v>
+      </c>
+      <c r="H22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" t="s">
+        <v>72</v>
+      </c>
+      <c r="F23" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" t="s">
+        <v>73</v>
+      </c>
+      <c r="H23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s">
+        <v>75</v>
+      </c>
+      <c r="E24" t="s">
+        <v>72</v>
+      </c>
+      <c r="F24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" t="s">
+        <v>76</v>
+      </c>
+      <c r="H24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" t="s">
+        <v>72</v>
+      </c>
+      <c r="F25" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" t="s">
+        <v>78</v>
+      </c>
+      <c r="H25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" t="s">
+        <v>72</v>
+      </c>
+      <c r="F26" t="s">
+        <v>58</v>
+      </c>
+      <c r="G26" t="s">
+        <v>81</v>
+      </c>
+      <c r="H26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" t="s">
+        <v>72</v>
+      </c>
+      <c r="F27" t="s">
+        <v>58</v>
+      </c>
+      <c r="G27" t="s">
+        <v>83</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" t="s">
+        <v>85</v>
+      </c>
+      <c r="F28" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" t="s">
+        <v>73</v>
+      </c>
+      <c r="H28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>86</v>
+      </c>
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" t="s">
+        <v>60</v>
+      </c>
+      <c r="E29" t="s">
+        <v>85</v>
+      </c>
+      <c r="F29" t="s">
+        <v>87</v>
+      </c>
+      <c r="G29" t="s">
+        <v>88</v>
+      </c>
+      <c r="H29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>89</v>
+      </c>
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" t="s">
+        <v>90</v>
+      </c>
+      <c r="E30" t="s">
+        <v>85</v>
+      </c>
+      <c r="F30" t="s">
+        <v>87</v>
+      </c>
+      <c r="G30" t="s">
+        <v>91</v>
+      </c>
+      <c r="H30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>92</v>
+      </c>
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" t="s">
+        <v>85</v>
+      </c>
+      <c r="F31" t="s">
+        <v>93</v>
+      </c>
+      <c r="G31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>94</v>
+      </c>
+      <c r="B32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s">
+        <v>32</v>
+      </c>
+      <c r="E32" t="s">
+        <v>85</v>
+      </c>
+      <c r="F32" t="s">
+        <v>95</v>
+      </c>
+      <c r="G32" t="s">
+        <v>96</v>
+      </c>
+      <c r="H32" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>97</v>
+      </c>
+      <c r="B33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" t="s">
+        <v>98</v>
+      </c>
+      <c r="H33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>99</v>
+      </c>
+      <c r="B34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34" t="s">
+        <v>100</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>101</v>
+      </c>
+      <c r="B35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" t="s">
+        <v>102</v>
+      </c>
+      <c r="E35" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" t="s">
+        <v>14</v>
+      </c>
+      <c r="G35" t="s">
+        <v>103</v>
+      </c>
+      <c r="H35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>104</v>
+      </c>
+      <c r="B36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" t="s">
+        <v>71</v>
+      </c>
+      <c r="E36" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" t="s">
+        <v>14</v>
+      </c>
+      <c r="G36" t="s">
+        <v>105</v>
+      </c>
+      <c r="H36" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>106</v>
+      </c>
+      <c r="B37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" t="s">
+        <v>32</v>
+      </c>
+      <c r="E37" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" t="s">
+        <v>58</v>
+      </c>
+      <c r="G37" t="s">
+        <v>107</v>
+      </c>
+      <c r="H37" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>108</v>
+      </c>
+      <c r="B38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" t="s">
+        <v>32</v>
+      </c>
+      <c r="E38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" t="s">
+        <v>109</v>
+      </c>
+      <c r="H38" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>110</v>
+      </c>
+      <c r="B39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" t="s">
+        <v>71</v>
+      </c>
+      <c r="E39" t="s">
+        <v>85</v>
+      </c>
+      <c r="F39" t="s">
+        <v>58</v>
+      </c>
+      <c r="G39" t="s">
+        <v>40</v>
+      </c>
+      <c r="H39" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>111</v>
+      </c>
+      <c r="B40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" t="s">
+        <v>23</v>
+      </c>
+      <c r="E40" t="s">
+        <v>58</v>
+      </c>
+      <c r="F40" t="s">
+        <v>58</v>
+      </c>
+      <c r="G40" t="s">
+        <v>112</v>
+      </c>
+      <c r="H40" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>113</v>
+      </c>
+      <c r="B41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" t="s">
+        <v>14</v>
+      </c>
+      <c r="G41" t="s">
+        <v>114</v>
+      </c>
+      <c r="H41" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>115</v>
+      </c>
+      <c r="B42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" t="s">
+        <v>23</v>
+      </c>
+      <c r="E42" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" t="s">
+        <v>14</v>
+      </c>
+      <c r="G42" t="s">
+        <v>116</v>
+      </c>
+      <c r="H42" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>117</v>
+      </c>
+      <c r="B43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" t="s">
+        <v>23</v>
+      </c>
+      <c r="E43" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" t="s">
+        <v>14</v>
+      </c>
+      <c r="G43" t="s">
+        <v>118</v>
+      </c>
+      <c r="H43" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>119</v>
+      </c>
+      <c r="B44" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" t="s">
+        <v>120</v>
+      </c>
+      <c r="E44" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" t="s">
+        <v>14</v>
+      </c>
+      <c r="G44" t="s">
+        <v>21</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>121</v>
+      </c>
+      <c r="B45" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" t="s">
+        <v>49</v>
+      </c>
+      <c r="E45" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" t="s">
+        <v>14</v>
+      </c>
+      <c r="G45" t="s">
+        <v>122</v>
+      </c>
+      <c r="H45" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>123</v>
+      </c>
+      <c r="B46" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" t="s">
+        <v>90</v>
+      </c>
+      <c r="E46" t="s">
+        <v>13</v>
+      </c>
+      <c r="F46" t="s">
+        <v>14</v>
+      </c>
+      <c r="G46" t="s">
+        <v>124</v>
+      </c>
+      <c r="H46" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>125</v>
+      </c>
+      <c r="B47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" t="s">
+        <v>126</v>
+      </c>
+      <c r="E47" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" t="s">
+        <v>14</v>
+      </c>
+      <c r="G47" t="s">
+        <v>116</v>
+      </c>
+      <c r="H47" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>127</v>
+      </c>
+      <c r="B48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" t="s">
+        <v>32</v>
+      </c>
+      <c r="E48" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48" t="s">
+        <v>14</v>
+      </c>
+      <c r="G48" t="s">
+        <v>128</v>
+      </c>
+      <c r="H48" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>129</v>
+      </c>
+      <c r="B49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" t="s">
+        <v>23</v>
+      </c>
+      <c r="E49" t="s">
+        <v>130</v>
+      </c>
+      <c r="F49" t="s">
+        <v>93</v>
+      </c>
+      <c r="G49" t="s">
+        <v>131</v>
+      </c>
+      <c r="H49" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>132</v>
+      </c>
+      <c r="B50" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" t="s">
+        <v>90</v>
+      </c>
+      <c r="E50" t="s">
+        <v>13</v>
+      </c>
+      <c r="F50" t="s">
+        <v>14</v>
+      </c>
+      <c r="G50" t="s">
+        <v>83</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>133</v>
+      </c>
+      <c r="B51" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" t="s">
+        <v>90</v>
+      </c>
+      <c r="E51" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51" t="s">
+        <v>14</v>
+      </c>
+      <c r="G51" t="s">
+        <v>134</v>
+      </c>
+      <c r="H51" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>135</v>
+      </c>
+      <c r="B52" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52" t="s">
+        <v>49</v>
+      </c>
+      <c r="E52" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52" t="s">
+        <v>14</v>
+      </c>
+      <c r="G52" t="s">
+        <v>136</v>
+      </c>
+      <c r="H52" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>137</v>
+      </c>
+      <c r="B53" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53" t="s">
+        <v>23</v>
+      </c>
+      <c r="E53" t="s">
+        <v>138</v>
+      </c>
+      <c r="F53" t="s">
+        <v>139</v>
+      </c>
+      <c r="G53" t="s">
+        <v>140</v>
+      </c>
+      <c r="H53" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>141</v>
+      </c>
+      <c r="B54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54" t="s">
+        <v>142</v>
+      </c>
+      <c r="E54" t="s">
+        <v>138</v>
+      </c>
+      <c r="F54" t="s">
+        <v>87</v>
+      </c>
+      <c r="G54" t="s">
+        <v>143</v>
+      </c>
+      <c r="H54" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>144</v>
+      </c>
+      <c r="B55" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55" t="s">
+        <v>90</v>
+      </c>
+      <c r="E55" t="s">
+        <v>13</v>
+      </c>
+      <c r="F55" t="s">
+        <v>14</v>
+      </c>
+      <c r="G55" t="s">
+        <v>143</v>
+      </c>
+      <c r="H55" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>145</v>
+      </c>
+      <c r="B56" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" t="s">
+        <v>146</v>
+      </c>
+      <c r="E56" t="s">
+        <v>19</v>
+      </c>
+      <c r="F56" t="s">
+        <v>20</v>
+      </c>
+      <c r="G56" t="s">
+        <v>147</v>
+      </c>
+      <c r="H56" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>148</v>
+      </c>
+      <c r="B57" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57" t="s">
+        <v>32</v>
+      </c>
+      <c r="E57" t="s">
+        <v>19</v>
+      </c>
+      <c r="F57" t="s">
+        <v>20</v>
+      </c>
+      <c r="G57" t="s">
+        <v>21</v>
+      </c>
+      <c r="H57" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>149</v>
+      </c>
+      <c r="B58" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58" t="s">
+        <v>12</v>
+      </c>
+      <c r="E58" t="s">
+        <v>19</v>
+      </c>
+      <c r="F58" t="s">
+        <v>20</v>
+      </c>
+      <c r="G58" t="s">
+        <v>76</v>
+      </c>
+      <c r="H58" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>150</v>
+      </c>
+      <c r="B59" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" t="s">
+        <v>11</v>
+      </c>
+      <c r="D59" t="s">
+        <v>126</v>
+      </c>
+      <c r="E59" t="s">
+        <v>19</v>
+      </c>
+      <c r="F59" t="s">
+        <v>95</v>
+      </c>
+      <c r="G59" t="s">
+        <v>151</v>
+      </c>
+      <c r="H59" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>152</v>
+      </c>
+      <c r="B60" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" t="s">
+        <v>11</v>
+      </c>
+      <c r="D60" t="s">
+        <v>32</v>
+      </c>
+      <c r="E60" t="s">
+        <v>138</v>
+      </c>
+      <c r="F60" t="s">
+        <v>153</v>
+      </c>
+      <c r="G60" t="s">
+        <v>78</v>
+      </c>
+      <c r="H60" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>154</v>
+      </c>
+      <c r="B61" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" t="s">
+        <v>11</v>
+      </c>
+      <c r="D61" t="s">
+        <v>155</v>
+      </c>
+      <c r="E61" t="s">
+        <v>13</v>
+      </c>
+      <c r="F61" t="s">
+        <v>14</v>
+      </c>
+      <c r="G61" t="s">
+        <v>156</v>
+      </c>
+      <c r="H61" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>157</v>
+      </c>
+      <c r="B62" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62" t="s">
+        <v>11</v>
+      </c>
+      <c r="D62" t="s">
+        <v>49</v>
+      </c>
+      <c r="E62" t="s">
+        <v>130</v>
+      </c>
+      <c r="F62" t="s">
+        <v>153</v>
+      </c>
+      <c r="G62" t="s">
+        <v>118</v>
+      </c>
+      <c r="H62" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>158</v>
+      </c>
+      <c r="B63" t="s">
+        <v>10</v>
+      </c>
+      <c r="C63" t="s">
+        <v>11</v>
+      </c>
+      <c r="D63" t="s">
+        <v>45</v>
+      </c>
+      <c r="E63" t="s">
+        <v>13</v>
+      </c>
+      <c r="F63" t="s">
+        <v>14</v>
+      </c>
+      <c r="G63" t="s">
+        <v>159</v>
+      </c>
+      <c r="H63" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>160</v>
+      </c>
+      <c r="B64" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64" t="s">
+        <v>11</v>
+      </c>
+      <c r="D64" t="s">
+        <v>161</v>
+      </c>
+      <c r="E64" t="s">
+        <v>13</v>
+      </c>
+      <c r="F64" t="s">
+        <v>14</v>
+      </c>
+      <c r="G64" t="s">
+        <v>162</v>
+      </c>
+      <c r="H64" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>163</v>
+      </c>
+      <c r="B65" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" t="s">
+        <v>11</v>
+      </c>
+      <c r="D65" t="s">
+        <v>164</v>
+      </c>
+      <c r="E65" t="s">
+        <v>13</v>
+      </c>
+      <c r="F65" t="s">
+        <v>20</v>
+      </c>
+      <c r="G65" t="s">
+        <v>118</v>
+      </c>
+      <c r="H65" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>165</v>
+      </c>
+      <c r="B66" t="s">
+        <v>10</v>
+      </c>
+      <c r="C66" t="s">
+        <v>11</v>
+      </c>
+      <c r="D66" t="s">
+        <v>32</v>
+      </c>
+      <c r="E66" t="s">
+        <v>130</v>
+      </c>
+      <c r="F66" t="s">
+        <v>93</v>
+      </c>
+      <c r="G66" t="s">
+        <v>166</v>
+      </c>
+      <c r="H66" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>167</v>
+      </c>
+      <c r="B67" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67" t="s">
+        <v>11</v>
+      </c>
+      <c r="D67" t="s">
+        <v>32</v>
+      </c>
+      <c r="E67" t="s">
+        <v>13</v>
+      </c>
+      <c r="F67" t="s">
+        <v>14</v>
+      </c>
+      <c r="G67" t="s">
+        <v>168</v>
+      </c>
+      <c r="H67" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>169</v>
+      </c>
+      <c r="B68" t="s">
+        <v>10</v>
+      </c>
+      <c r="C68" t="s">
+        <v>11</v>
+      </c>
+      <c r="D68" t="s">
+        <v>23</v>
+      </c>
+      <c r="E68" t="s">
+        <v>13</v>
+      </c>
+      <c r="F68" t="s">
+        <v>153</v>
+      </c>
+      <c r="G68" t="s">
+        <v>122</v>
+      </c>
+      <c r="H68" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>170</v>
+      </c>
+      <c r="B69" t="s">
+        <v>10</v>
+      </c>
+      <c r="C69" t="s">
+        <v>11</v>
+      </c>
+      <c r="D69" t="s">
+        <v>171</v>
+      </c>
+      <c r="E69" t="s">
+        <v>13</v>
+      </c>
+      <c r="F69" t="s">
+        <v>14</v>
+      </c>
+      <c r="G69" t="s">
+        <v>131</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>172</v>
+      </c>
+      <c r="B70" t="s">
+        <v>10</v>
+      </c>
+      <c r="C70" t="s">
+        <v>11</v>
+      </c>
+      <c r="D70" t="s">
+        <v>173</v>
+      </c>
+      <c r="E70" t="s">
+        <v>138</v>
+      </c>
+      <c r="F70" t="s">
+        <v>153</v>
+      </c>
+      <c r="G70" t="s">
+        <v>33</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>174</v>
+      </c>
+      <c r="B71" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71" t="s">
+        <v>11</v>
+      </c>
+      <c r="D71" t="s">
+        <v>58</v>
+      </c>
+      <c r="E71" t="s">
+        <v>13</v>
+      </c>
+      <c r="F71" t="s">
+        <v>20</v>
+      </c>
+      <c r="G71" t="s">
+        <v>175</v>
+      </c>
+      <c r="H71" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>176</v>
+      </c>
+      <c r="B72" t="s">
+        <v>10</v>
+      </c>
+      <c r="C72" t="s">
+        <v>11</v>
+      </c>
+      <c r="D72" t="s">
+        <v>177</v>
+      </c>
+      <c r="E72" t="s">
+        <v>19</v>
+      </c>
+      <c r="F72" t="s">
+        <v>14</v>
+      </c>
+      <c r="G72" t="s">
+        <v>58</v>
+      </c>
+      <c r="H72" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>178</v>
+      </c>
+      <c r="B73" t="s">
+        <v>10</v>
+      </c>
+      <c r="C73" t="s">
+        <v>11</v>
+      </c>
+      <c r="D73" t="s">
+        <v>32</v>
+      </c>
+      <c r="E73" t="s">
+        <v>19</v>
+      </c>
+      <c r="F73" t="s">
+        <v>20</v>
+      </c>
+      <c r="G73" t="s">
+        <v>58</v>
+      </c>
+      <c r="H73" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>179</v>
+      </c>
+      <c r="B74" t="s">
+        <v>10</v>
+      </c>
+      <c r="C74" t="s">
+        <v>11</v>
+      </c>
+      <c r="D74" t="s">
+        <v>32</v>
+      </c>
+      <c r="E74" t="s">
+        <v>130</v>
+      </c>
+      <c r="F74" t="s">
+        <v>180</v>
+      </c>
+      <c r="G74" t="s">
+        <v>114</v>
+      </c>
+      <c r="H74" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>181</v>
+      </c>
+      <c r="B75" t="s">
+        <v>10</v>
+      </c>
+      <c r="C75" t="s">
+        <v>11</v>
+      </c>
+      <c r="D75" t="s">
+        <v>155</v>
+      </c>
+      <c r="E75" t="s">
+        <v>130</v>
+      </c>
+      <c r="F75" t="s">
+        <v>180</v>
+      </c>
+      <c r="G75" t="s">
+        <v>182</v>
+      </c>
+      <c r="H75" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>183</v>
+      </c>
+      <c r="B76" t="s">
+        <v>10</v>
+      </c>
+      <c r="C76" t="s">
+        <v>11</v>
+      </c>
+      <c r="D76" t="s">
+        <v>126</v>
+      </c>
+      <c r="E76" t="s">
+        <v>138</v>
+      </c>
+      <c r="F76" t="s">
+        <v>180</v>
+      </c>
+      <c r="G76" t="s">
+        <v>88</v>
+      </c>
+      <c r="H76" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>184</v>
+      </c>
+      <c r="B77" t="s">
+        <v>10</v>
+      </c>
+      <c r="C77" t="s">
+        <v>11</v>
+      </c>
+      <c r="D77" t="s">
+        <v>45</v>
+      </c>
+      <c r="E77" t="s">
+        <v>13</v>
+      </c>
+      <c r="F77" t="s">
+        <v>14</v>
+      </c>
+      <c r="G77" t="s">
+        <v>35</v>
+      </c>
+      <c r="H77" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>185</v>
+      </c>
+      <c r="B78" t="s">
+        <v>10</v>
+      </c>
+      <c r="C78" t="s">
+        <v>11</v>
+      </c>
+      <c r="D78" t="s">
+        <v>173</v>
+      </c>
+      <c r="E78" t="s">
+        <v>130</v>
+      </c>
+      <c r="F78" t="s">
+        <v>153</v>
+      </c>
+      <c r="G78" t="s">
+        <v>65</v>
+      </c>
+      <c r="H78" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>186</v>
+      </c>
+      <c r="B79" t="s">
+        <v>10</v>
+      </c>
+      <c r="C79" t="s">
+        <v>11</v>
+      </c>
+      <c r="D79" t="s">
+        <v>12</v>
+      </c>
+      <c r="E79" t="s">
+        <v>13</v>
+      </c>
+      <c r="F79" t="s">
+        <v>14</v>
+      </c>
+      <c r="G79" t="s">
+        <v>58</v>
+      </c>
+      <c r="H79" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>187</v>
+      </c>
+      <c r="B80" t="s">
+        <v>10</v>
+      </c>
+      <c r="C80" t="s">
+        <v>11</v>
+      </c>
+      <c r="D80" t="s">
+        <v>32</v>
+      </c>
+      <c r="E80" t="s">
+        <v>13</v>
+      </c>
+      <c r="F80" t="s">
+        <v>14</v>
+      </c>
+      <c r="G80" t="s">
+        <v>58</v>
+      </c>
+      <c r="H80" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>188</v>
+      </c>
+      <c r="B81" t="s">
+        <v>10</v>
+      </c>
+      <c r="C81" t="s">
+        <v>11</v>
+      </c>
+      <c r="D81" t="s">
+        <v>32</v>
+      </c>
+      <c r="E81" t="s">
+        <v>13</v>
+      </c>
+      <c r="F81" t="s">
+        <v>14</v>
+      </c>
+      <c r="G81" t="s">
+        <v>58</v>
+      </c>
+      <c r="H81" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>189</v>
+      </c>
+      <c r="B82" t="s">
+        <v>10</v>
+      </c>
+      <c r="C82" t="s">
+        <v>11</v>
+      </c>
+      <c r="D82" t="s">
+        <v>23</v>
+      </c>
+      <c r="E82" t="s">
+        <v>138</v>
+      </c>
+      <c r="F82" t="s">
+        <v>58</v>
+      </c>
+      <c r="G82" t="s">
+        <v>58</v>
+      </c>
+      <c r="H82" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>190</v>
+      </c>
+      <c r="B83" t="s">
+        <v>10</v>
+      </c>
+      <c r="C83" t="s">
+        <v>11</v>
+      </c>
+      <c r="D83" t="s">
+        <v>126</v>
+      </c>
+      <c r="E83" t="s">
+        <v>138</v>
+      </c>
+      <c r="F83" t="s">
+        <v>153</v>
+      </c>
+      <c r="G83" t="s">
+        <v>58</v>
+      </c>
+      <c r="H83" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>191</v>
+      </c>
+      <c r="B84" t="s">
+        <v>10</v>
+      </c>
+      <c r="C84" t="s">
+        <v>11</v>
+      </c>
+      <c r="D84" t="s">
+        <v>192</v>
+      </c>
+      <c r="E84" t="s">
+        <v>130</v>
+      </c>
+      <c r="F84" t="s">
+        <v>153</v>
+      </c>
+      <c r="G84" t="s">
+        <v>58</v>
+      </c>
+      <c r="H84" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>193</v>
+      </c>
+      <c r="B85" t="s">
+        <v>10</v>
+      </c>
+      <c r="C85" t="s">
+        <v>11</v>
+      </c>
+      <c r="D85" t="s">
+        <v>194</v>
+      </c>
+      <c r="E85" t="s">
+        <v>13</v>
+      </c>
+      <c r="F85" t="s">
+        <v>14</v>
+      </c>
+      <c r="G85" t="s">
+        <v>58</v>
+      </c>
+      <c r="H85" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/OutputFiles/TC02_Canine_Filter_Diagnosis-LipLingual_WebData.xlsx
+++ b/OutputFiles/TC02_Canine_Filter_Diagnosis-LipLingual_WebData.xlsx
@@ -6,7 +6,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="WebDataCanine" r:id="rId3" sheetId="1"/>
+    <sheet name="WebData" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
